--- a/resources/123.xlsx
+++ b/resources/123.xlsx
@@ -184,11 +184,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +204,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -234,6 +281,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -242,6 +296,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -249,8 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,100 +321,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,12 +357,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,13 +423,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +489,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,139 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +556,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,17 +629,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,173 +648,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,340 +1127,340 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" ht="17.6" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" ht="17.6" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="17.6" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" ht="17.6" spans="1:17">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" ht="17.6" spans="1:17">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" ht="17.6" spans="1:17">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" ht="17.6" spans="1:17">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" ht="17.6" spans="1:17">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" ht="17.6" spans="1:17">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="17.6" spans="1:17">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="17.6" spans="1:7">
       <c r="A11" s="1" t="s">
@@ -1492,6 +1486,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://pic.rmb.bdstatic.com/bjh/events/e61ab2fe622b1ae64755b5c18f0933f68612.png@s_2,w_753,h_565" tooltip="https://pic.rmb.bdstatic.com/bjh/events/e61ab2fe622b1ae64755b5c18f0933f68612.png@s_2,w_753,h_565"/>
+    <hyperlink ref="G7" r:id="rId2" display="https://pic.rmb.bdstatic.com/bjh/events/67de12b7399c4cc151febc8f2d518e0c9217.jpeg@s_2,w_753,h_565"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
